--- a/タスク表_2018_10_02.xlsx
+++ b/タスク表_2018_10_02.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -305,6 +304,67 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>ジッシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵案出し</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔導協会の人間や、そこが作り出した魔導機械</t>
+    <rPh sb="0" eb="2">
+      <t>マドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>マドウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,17 +617,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -575,9 +629,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,282 +647,297 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J12"/>
+      <selection activeCell="G8" sqref="G8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1200,397 +1266,446 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="15"/>
-      <c r="L4" s="95" t="s">
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="104"/>
+      <c r="L4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="76"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="77" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="78">
-        <v>43383</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="22"/>
-      <c r="L5" s="98" t="s">
+      <c r="F5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="106"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="107"/>
+      <c r="L5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="100"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="76"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="77" t="s">
+      <c r="D6" s="97"/>
+      <c r="E6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="78">
-        <v>43390</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="L6" s="101" t="s">
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="97"/>
+      <c r="L6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="103"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="79"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="97"/>
+      <c r="L7" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="37"/>
+      <c r="C8" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="80" t="s">
+      <c r="D8" s="100"/>
+      <c r="E8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="81">
-        <v>43390</v>
-      </c>
-      <c r="G7" s="26" t="s">
+      <c r="F8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="L7" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="103"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="100"/>
+      <c r="L8" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="58"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="17"/>
-      <c r="L8" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="103"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="53"/>
-      <c r="L9" s="101" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="L9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="103"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="46"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="103"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="58"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="62"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="64"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="103"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="103"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="65"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="103"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="80"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="43"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="82"/>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="73"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="40"/>
+      <c r="C18" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="82" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="85">
-        <v>43390</v>
-      </c>
-      <c r="G17" s="83" t="s">
+      <c r="F18" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="84"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="103"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="82"/>
-      <c r="C18" s="87" t="s">
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="40"/>
+      <c r="C19" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="82" t="s">
+      <c r="D19" s="92"/>
+      <c r="E19" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="85">
-        <v>43396</v>
-      </c>
-      <c r="G18" s="87" t="s">
+      <c r="F19" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="88"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="103"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="90"/>
-      <c r="C19" s="91" t="s">
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="42"/>
+      <c r="C20" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="90" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="93">
-        <v>43390</v>
-      </c>
-      <c r="G19" s="91" t="s">
+      <c r="F20" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="92"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="105"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="106"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J32" s="11"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="3"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G17:J17"/>
     <mergeCell ref="L19:O19"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="L5:O5"/>
@@ -1607,35 +1722,6 @@
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
     <mergeCell ref="L18:O18"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/タスク表_2018_10_02.xlsx
+++ b/タスク表_2018_10_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>魔導協会</t>
     <rPh sb="0" eb="4">
@@ -333,13 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10_19</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -365,6 +358,109 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力システム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板倉</t>
+    <rPh sb="0" eb="2">
+      <t>イタクラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薄井</t>
+    <rPh sb="0" eb="2">
+      <t>ウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーとマネージャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10_29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細かいプレイヤーの挙動は29日まで</t>
+    <rPh sb="0" eb="1">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップチップ配置と当たり判定の生成</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リソースも含めて</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,7 +545,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -473,34 +569,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -513,37 +585,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -553,10 +594,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -605,19 +646,23 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,312 +676,185 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,397 +1166,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:J8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="10" width="26" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="75" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="10" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="105" t="s">
+      <c r="F4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="104"/>
-      <c r="L4" s="50" t="s">
+      <c r="H4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="52"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="34"/>
-      <c r="C5" s="106" t="s">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="25"/>
+      <c r="C5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="107"/>
-      <c r="L5" s="53" t="s">
+      <c r="F5" s="54"/>
+      <c r="H5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="55"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="34"/>
-      <c r="C6" s="96" t="s">
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="96" t="s">
+      <c r="F6" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="97"/>
-      <c r="L6" s="56" t="s">
+      <c r="H6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="34"/>
-      <c r="C7" s="44" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="25"/>
+      <c r="C7" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="H7" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="25"/>
+      <c r="C9" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="97"/>
-      <c r="L7" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="37"/>
-      <c r="C8" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="100"/>
-      <c r="L8" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="58"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="D9" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="H9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="H10" s="51"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="H11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
+      <c r="C13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="51"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="28"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="56"/>
+      <c r="H15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="L9" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="58"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="58"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="64"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="58"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="57"/>
+      <c r="H16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="16"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="58"/>
+      <c r="H17" s="51"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="59"/>
+      <c r="H18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="5"/>
+      <c r="H19" s="52"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="27"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="80"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="58"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="27"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="86"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="58"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="58"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="58"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="92"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="37"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="22"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="60"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="31"/>
+      <c r="C25" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="31"/>
+      <c r="C26" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="33"/>
+      <c r="C27" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1649,7 +1573,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1660,68 +1584,46 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J33" s="8"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:J8"/>
+  <mergeCells count="3">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="G31:J31"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L18:O18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
